--- a/Result/excel_result/Smith_50_test_3.xlsx
+++ b/Result/excel_result/Smith_50_test_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,18 +424,374 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C101_0.5.dat</t>
+          <t>U_15_0.5_Num_7.txt</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>141.2324971926633</v>
-      </c>
-      <c r="C1" t="n">
-        <v>92.14956903457642</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>[[[[0, [5, 1]], [5, [3, 4, 2, 6]], [3, []], [4, []], [1, []], [2, []], [6, []], [9, [9, 8, 10, 7]], [8, []], [10, []], [7, []]]], [[[5, [3, 4, 2, 6]]], [[9, [9, 8, 10, 7]]]]]</t>
+        <v>196.6611514685311</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>U_15_0.5_Num_8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>U_15_0.5_Num_9.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_10.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_5.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>U_15_1.0_Num_9.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_10.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_5.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>U_15_1.5_Num_9.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_10.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_5.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>U_15_2.0_Num_9.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_10.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_5.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>U_15_2.5_Num_9.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_10.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_5.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>U_15_3.0_Num_9.txt</t>
         </is>
       </c>
     </row>
